--- a/data/trans_dic/P23_7_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_7_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas personales y familiares</t>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas personales y familiares (tasa de respuesta: 99,57%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>4,97%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,17%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6,33%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8,74%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 7,28</t>
+          <t>0,54; 5,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,06; 8,6</t>
+          <t>2,53; 10,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 7,68</t>
+          <t>2,18; 9,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 10,56</t>
+          <t>4,2; 13,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,27; 9,69</t>
+          <t>4,18; 12,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,72; 11,73</t>
+          <t>2,83; 9,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,3; 8,1</t>
+          <t>4,8; 12,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,09</t>
+          <t>6,05; 15,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,56</t>
+          <t>3,01; 7,58</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3,19; 7,84</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4,05; 9,3</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5,66; 12,76</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>5,47%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4,04%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,84%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5,62%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,93; 8,85</t>
+          <t>1,91; 9,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 14,77</t>
+          <t>0,76; 18,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,59</t>
+          <t>1,51; 8,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 12,17</t>
+          <t>1,57; 8,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 6,05</t>
+          <t>2,79; 9,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 7,64</t>
+          <t>1,36; 6,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,17; 9,22</t>
+          <t>2,78; 10,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 9,28</t>
+          <t>3,98; 11,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,1</t>
+          <t>3,21; 8,49</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1,69; 9,71</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 8,12</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3,25; 8,46</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>27,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>28,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>1,43%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>16,25%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6,82%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>18,52%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 13,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 37,36</t>
+          <t>4,71; 67,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 32,43</t>
+          <t>0,0; 42,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 12,63</t>
+          <t>0,0; 71,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 15,08</t>
+          <t>0,0; 12,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 20,73</t>
+          <t>0,0; 14,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 10,95</t>
+          <t>0,0; 11,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 24,45</t>
+          <t>2,05; 20,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,03; 23,56</t>
+          <t>0,0; 6,69</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4,16; 41,8</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,34; 19,51</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4,33; 46,65</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>4,8%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8,55%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,26; 6,79</t>
+          <t>1,58; 5,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 11,19</t>
+          <t>3,5; 15,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,87</t>
+          <t>2,98; 8,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,4</t>
+          <t>5,04; 18,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,43</t>
+          <t>4,16; 8,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,95; 9,02</t>
+          <t>2,79; 6,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 7,68</t>
+          <t>4,27; 9,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 8,39</t>
+          <t>6,05; 12,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 7,67</t>
+          <t>3,43; 6,56</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3,8; 9,71</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4,18; 7,71</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6,32; 12,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas personales y familiares (tasa de respuesta: 99,57%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9677</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18135</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17865</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>39186</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>36583</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22470</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>32026</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>54189</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>46260</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>40605</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>49890</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>93375</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2315; 22440</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9203; 36522</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8302; 37204</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>21160; 68560</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>20974; 61230</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11898; 38652</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19572; 49398</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>34118; 89259</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>28077; 70606</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>25090; 61541</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>31902; 73293</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>60469; 136290</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>17643</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>15113</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12396</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16620</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>25250</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11255</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>19198</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>30696</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>42894</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>26368</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>31595</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>47316</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6853; 34643</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2409; 60130</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4796; 26682</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6484; 35335</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>11884; 42319</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4527; 22929</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9311; 35486</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17125; 49577</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>25225; 66659</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>11051; 63366</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>17919; 53047</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>27356; 71213</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>22167</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9041</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>33053</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2899</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3727</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9067</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2899</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>25894</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>11241</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>42119</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3745; 54027</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 34668</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 83022</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12952</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11729</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9138</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2281; 23150</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13570</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6633; 66624</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2214; 32150</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9845; 106099</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>27321</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>55416</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>39302</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>88858</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>64732</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>37452</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>53424</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>93952</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>92052</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>92867</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>92725</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>182810</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>14116; 47498</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>26642; 116724</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>23301; 65472</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>52076; 188362</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>42717; 91582</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>23293; 56615</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>35202; 76603</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>66811; 133874</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>65793; 125843</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>60686; 155025</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>67126; 123889</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>135005; 272863</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
